--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163675</v>
+        <v>3432714.247342982</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>55.57648618961438</v>
+        <v>182.9517011130384</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.787420751036535</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253.6915800531447</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>84.65050398557337</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>72.20875484425828</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>54.70191565295222</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6770208729563</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586885</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>73.45289880148457</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.76123719079575</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.458642397731778</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>48.85497112745813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>14.53306611597401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>109.0404882242265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>66.12869588327312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>39.19314274110882</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35.02467705292147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>13.72582864853782</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695616</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>48.34531439065476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>121.0056618329838</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.25773758188321</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>688.4561315142857</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>688.4561315142857</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D2" t="n">
-        <v>688.4561315142857</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="E2" t="n">
-        <v>688.4561315142857</v>
+        <v>1221.158368810674</v>
       </c>
       <c r="F2" t="n">
-        <v>681.5106307650823</v>
+        <v>810.1724640210662</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5468226632692</v>
+        <v>392.208655919253</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.055971578407</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977588</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1121.864230298083</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>710.8783255084752</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>292.9145174066621</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883535</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>932.2014054355411</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>932.2014054355411</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>932.2014054355411</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>932.2014054355411</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>521.2155006459336</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.340737411353</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>932.2014054355411</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>624.5172177858293</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2403.769914700669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2403.769914700669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2184.16844972361</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1895.093223067808</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1640.408734861921</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.99156482496</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2381.235169913446</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L15" t="n">
-        <v>2381.235169913446</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>2978.613657539998</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>3606.211621094605</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>4158.121351333892</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>4581.74450082896</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2193.56896730804</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1904.493740652238</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1649.809252446351</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.39208240939</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1132.402531511373</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729772</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801865</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3662.891569703542</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3662.891569703542</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3442.098990560012</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>813.3497091711303</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>996.5276398439761</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1398.968683817746</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1178.176104674216</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>819.2033709951107</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794805</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6782,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>417.7969033733018</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>270.9069558753914</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>279.7087630373442</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,16 +7189,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2331.083728933012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2111.482263955953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.407037300151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1567.722549094264</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1278.305379057304</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1050.315828159286</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159286</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>734.6461798836018</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>734.6461798836018</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>586.7330863012087</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F43" t="n">
-        <v>439.8431388032983</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.872235754091</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C46" t="n">
-        <v>853.9360528261844</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D46" t="n">
-        <v>703.8194134138487</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E46" t="n">
-        <v>555.9063198314556</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F46" t="n">
-        <v>409.0163723335452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>241.8202730484251</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.520700584331</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-6.439667049203219e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>23.61400951932594</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>213.9468079295565</v>
+        <v>176.3785887617855</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>118.3918499711697</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>271.989932220617</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>109.4223302771035</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>130.4994612393474</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>132.6809716109898</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.51847645928507</v>
+        <v>131.695219374394</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>127.256811246707</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>75.03697526434065</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>5067.592601670437</v>
@@ -26432,31 +26432,31 @@
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670417</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670423</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670424</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670398</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670423</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278308</v>
+        <v>-134953.870327831</v>
       </c>
       <c r="C6" t="n">
         <v>455014.0088867138</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867134</v>
+        <v>455014.0088867141</v>
       </c>
       <c r="E6" t="n">
-        <v>-324130.9604622808</v>
+        <v>-324478.3397166378</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954277</v>
+        <v>619894.4380410707</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.817295428</v>
+        <v>619894.4380410713</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954281</v>
+        <v>619894.4380410706</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028348</v>
+        <v>443471.2188484778</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.8172954281</v>
+        <v>619894.4380410712</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410706</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.3065873696</v>
+        <v>495685.9273330122</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954277</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.817295428</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.8172954277</v>
+        <v>619894.4380410708</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>268.3462865747427</v>
+        <v>140.9710716513187</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>243.3502225727915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>100.9914615675383</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>239.2722687787838</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>76.40671817395408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>91.96327632720561</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>275.1071491478388</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>212.8289754404932</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.678960998152214e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>379.8551982710414</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>716.7980286000566</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>254.8897444730604</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.190220890813</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O42" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>242.0137592966825</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>585.4563165167233</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>116.3353646931863</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O42" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3432714.247342982</v>
+        <v>3434474.777645767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9517011130384</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>144.8861367051632</v>
       </c>
       <c r="H5" t="n">
-        <v>84.65050398557337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.19095768640517</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>54.70191565295222</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.53476167013089</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586885</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.21058558914873</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387954</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>168.97752971242</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>111.3062202753126</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>46.29306638367395</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>102.7673426709131</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695493</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128537</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>18.16423677622421</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703348</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012135</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.946621408918</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1606.946621408918</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1221.158368810674</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>810.1724640210662</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>392.208655919253</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799423</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799423</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.652482896327</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D5" t="n">
-        <v>1507.652482896327</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E5" t="n">
-        <v>1121.864230298083</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F5" t="n">
-        <v>710.8783255084752</v>
+        <v>353.7585908607932</v>
       </c>
       <c r="G5" t="n">
-        <v>292.9145174066621</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157407</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.832763498078</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2566.832763498078</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2313.07097813617</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.076161866192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5302,16 +5302,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>282.2891673205959</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>140.577336162794</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6785,19 +6785,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>446.9048623224643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>279.7087630373442</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978459</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>274.8772357154528</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>127.9872882175424</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192657</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111735</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075848</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332394</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014768</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355929</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068005</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7715,10 +7715,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797187</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756274</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756274</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756274</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>840.8417932021815</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756791</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.34948699608</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.972636491149</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400794</v>
       </c>
       <c r="C46" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121725</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121725</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732381</v>
+        <v>344.9174178121725</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121725</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782962</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179777</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611867</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138493</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703191</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.155557474667594e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-11</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>107.2784330767822</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>37.52737017531081</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>131.695219374394</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>127.256811246707</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392193404</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915917</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915917</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915915</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>2.724020305322483e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26429,7 +26429,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26441,25 +26441,25 @@
         <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>5067.592601670416</v>
+      </c>
+      <c r="M4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670437</v>
-      </c>
       <c r="N4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670489</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670152</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26511,7 +26511,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.870327831</v>
+        <v>-134953.8703278309</v>
       </c>
       <c r="C6" t="n">
         <v>455014.0088867138</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867141</v>
+        <v>455014.0088867139</v>
       </c>
       <c r="E6" t="n">
-        <v>-324478.3397166378</v>
+        <v>-324165.6983877169</v>
       </c>
       <c r="F6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.079369992</v>
       </c>
       <c r="G6" t="n">
-        <v>619894.4380410707</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="H6" t="n">
-        <v>619894.4380410713</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="I6" t="n">
-        <v>619894.4380410706</v>
+        <v>620207.079369992</v>
       </c>
       <c r="J6" t="n">
-        <v>443471.2188484778</v>
+        <v>443783.8601773992</v>
       </c>
       <c r="K6" t="n">
-        <v>619894.4380410712</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="L6" t="n">
-        <v>619894.4380410706</v>
+        <v>620207.0793699924</v>
       </c>
       <c r="M6" t="n">
-        <v>495685.9273330122</v>
+        <v>495998.5686619332</v>
       </c>
       <c r="N6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699918</v>
       </c>
       <c r="O6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="P6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699898</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26779,7 +26779,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341678</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,23 +26968,23 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.092726157978177e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9710716513187</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.8980333156318</v>
       </c>
       <c r="H5" t="n">
-        <v>239.2722687787838</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4245153318072</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>91.96327632720561</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>99.88095113884062</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>431.3680753731354</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.2560498238277</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348449</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135358</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067238</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663296</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817596</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162587</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175704</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159455</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460056</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236531</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366924</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043736</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292904</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651535</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078759</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659458</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521109</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420763</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862143</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071808</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437263</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214715</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270571</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742454</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937737</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727596</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189911</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121577</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869296</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796267</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355187</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588164</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392057</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106799</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920068</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417323</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515933</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670481</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532779</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099325</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467226</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35980,13 +35980,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>297.3936679588052</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317881</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396433</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036779</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462715</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902772</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193545</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243188</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683836</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924745</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902415</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754096</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641961</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238475</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992819</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071412</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.1905571410356</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629539</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096358</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191325</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010463</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899086</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060464</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066258</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998989</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
